--- a/Steps & Process Documnet.xlsx
+++ b/Steps & Process Documnet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1.Problem Definition" sheetId="1" r:id="rId1"/>
@@ -557,13 +557,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>287321</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>13139</xdr:rowOff>
+      <xdr:rowOff>32189</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -580,7 +580,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="0" y="19050"/>
           <a:ext cx="11260121" cy="3143689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -595,13 +595,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>268439</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>150582</xdr:rowOff>
+      <xdr:rowOff>169632</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -618,8 +618,1287 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="0" y="3517900"/>
+          <a:ext cx="12460439" cy="9726382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>515953</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>45636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13830300"/>
+          <a:ext cx="11488753" cy="8497486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>392196</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>54934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23018750"/>
+          <a:ext cx="11974596" cy="6868484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>93704</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>146893</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="30384750"/>
+          <a:ext cx="11669754" cy="6039693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>439743</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>83204</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="37014150"/>
+          <a:ext cx="11412543" cy="4686954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19904</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>35341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="42170350"/>
+          <a:ext cx="6115904" cy="2981741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>525480</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>162410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="368300"/>
+          <a:ext cx="11498280" cy="3477110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>496645</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>51675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4279900"/>
+          <a:ext cx="9640645" cy="6268325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>162969</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>172014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10864850"/>
+          <a:ext cx="7478169" cy="4039164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>58519</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>42257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15100300"/>
+          <a:ext cx="9812119" cy="7039957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>429536</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>124305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22466300"/>
+          <a:ext cx="6525536" cy="3439005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>306459</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>130913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26333450"/>
+          <a:ext cx="11888859" cy="5287113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>439828</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>93270</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="32226250"/>
+          <a:ext cx="12022228" cy="8564170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>372973</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>38722</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="41802050"/>
+          <a:ext cx="10736173" cy="4458322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>77487</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>105175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="46958250"/>
+          <a:ext cx="9221487" cy="2867425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>106491</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>13833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="50825400"/>
+          <a:ext cx="12298491" cy="8116433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>401467</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>153115</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="59296300"/>
+          <a:ext cx="10155067" cy="5125165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>163564</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11745964" cy="3153215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>573111</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>140593</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="0" y="3498850"/>
-          <a:ext cx="12460439" cy="9726382"/>
+          <a:ext cx="11545911" cy="6401693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>582638</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>134440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10185400"/>
+          <a:ext cx="11555438" cy="7811590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>535091</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>45639</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18599150"/>
+          <a:ext cx="12117491" cy="8516539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>354006</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>3612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="27622500"/>
+          <a:ext cx="11326806" cy="3134162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>116018</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>156651</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="31121350"/>
+          <a:ext cx="12308018" cy="7706801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>268269</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>149888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="39408100"/>
+          <a:ext cx="11241069" cy="4753638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>182617</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>45484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="44564300"/>
+          <a:ext cx="11765017" cy="7411484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>544532</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>74372</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="52482750"/>
+          <a:ext cx="11517332" cy="9650172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>468407</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>86045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12050807" cy="2295845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>420605</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>22973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2762250"/>
+          <a:ext cx="10783805" cy="5363323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>230249</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>178390</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8286750"/>
+          <a:ext cx="11812649" cy="4229690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>354091</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>14123</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13208000"/>
+          <a:ext cx="11936491" cy="10193173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>30281</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>134602</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24491950"/>
+          <a:ext cx="12222281" cy="8973802"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>96880</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>143820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="368300"/>
+          <a:ext cx="11679280" cy="6773220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>211196</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>87125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8286750"/>
+          <a:ext cx="11793596" cy="10031225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>201499</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>45561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10564699" cy="7964011"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -929,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="A230" sqref="A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -944,7 +2223,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="A323" sqref="A323"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -955,6 +2236,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -962,11 +2244,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="A286" sqref="A286"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -974,11 +2259,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="A192" sqref="A192"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -998,13 +2286,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1012,10 +2301,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>